--- a/data/outputs/management_elsevier/54.xlsx
+++ b/data/outputs/management_elsevier/54.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS79"/>
+  <dimension ref="A1:BU79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -937,6 +947,12 @@
           <t>2-s2.0-84939800717</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>19057</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1153,6 +1169,12 @@
         <is>
           <t>2-s2.0-84939782434</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>6990</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1361,6 +1383,12 @@
           <t>2-s2.0-84939803167</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>4021</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1575,6 +1603,12 @@
         <is>
           <t>2-s2.0-84938882455</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>2148</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1783,6 +1817,12 @@
           <t>2-s2.0-84938834760</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>955</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1990,6 +2030,12 @@
           <t>2-s2.0-84939207445</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1855</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2200,6 +2246,12 @@
         <is>
           <t>2-s2.0-84940648306</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>3224</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -2408,6 +2460,12 @@
           <t>2-s2.0-84940877538</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3290</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2623,6 +2681,12 @@
           <t>2-s2.0-84940645746</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>3852</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2837,6 +2901,12 @@
         <is>
           <t>2-s2.0-84935032935</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>8462</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -3047,6 +3117,12 @@
           <t>2-s2.0-84938567458</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>42586</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3263,6 +3339,12 @@
         <is>
           <t>2-s2.0-84939269765</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>4646</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3469,6 +3551,12 @@
           <t>2-s2.0-84929299371</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>9777</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3694,6 +3782,12 @@
           <t>2-s2.0-84936138318</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>4300</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3908,6 +4002,12 @@
         <is>
           <t>2-s2.0-84933511558</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>1837</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -4116,6 +4216,12 @@
           <t>2-s2.0-84947269146</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1920</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4345,6 +4451,12 @@
           <t>2-s2.0-84934784080</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1941</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4560,6 +4672,12 @@
           <t>2-s2.0-84937549434</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2473</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4774,6 +4892,12 @@
         <is>
           <t>2-s2.0-84938409697</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>1421</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -4970,6 +5094,12 @@
           <t>2-s2.0-85044134432</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>623</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5181,6 +5311,12 @@
           <t>2-s2.0-84939265475</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1005</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5401,6 +5537,12 @@
         <is>
           <t>2-s2.0-84939254506</t>
         </is>
+      </c>
+      <c r="BT23" t="n">
+        <v>23101</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -5609,6 +5751,12 @@
           <t>2-s2.0-84939253134</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4149</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5822,6 +5970,12 @@
           <t>2-s2.0-84928753351</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1658</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6035,6 +6189,12 @@
           <t>2-s2.0-84929085897</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>3152</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6259,6 +6419,12 @@
         <is>
           <t>2-s2.0-84928806837</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>7024</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -6473,6 +6639,12 @@
           <t>2-s2.0-84928982274</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1282</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6682,6 +6854,12 @@
           <t>2-s2.0-84929145299</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>4072</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6888,6 +7066,12 @@
         <is>
           <t>2-s2.0-84929179923</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>4576</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -7088,6 +7272,12 @@
           <t>2-s2.0-84952630780</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>850</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7283,6 +7473,12 @@
           <t>2-s2.0-84952720381</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>702</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7498,6 +7694,12 @@
           <t>2-s2.0-84926505707</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>7450</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7723,6 +7925,12 @@
           <t>2-s2.0-84961318213</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>7500</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7948,6 +8156,12 @@
           <t>2-s2.0-84928481593</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>11784</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8163,6 +8377,12 @@
           <t>2-s2.0-84929454043</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>9599</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8384,6 +8604,12 @@
           <t>2-s2.0-84928943956</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>4493</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8599,6 +8825,12 @@
           <t>2-s2.0-84952720296</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2409</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8818,6 +9050,12 @@
           <t>2-s2.0-84922274569</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3030</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9028,6 +9266,12 @@
         <is>
           <t>2-s2.0-84924853532</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>3243</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -9232,6 +9476,12 @@
           <t>2-s2.0-84939956929</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1059</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9441,6 +9691,12 @@
           <t>2-s2.0-84922429928</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>4527</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9660,6 +9916,12 @@
           <t>2-s2.0-84922288588</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>4562</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9884,6 +10146,12 @@
         <is>
           <t>2-s2.0-84923217941</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>7480</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="45">
@@ -10092,6 +10360,12 @@
           <t>2-s2.0-84922466791</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>796</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10299,6 +10573,12 @@
           <t>2-s2.0-84923324604</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>8046</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10516,6 +10796,12 @@
           <t>2-s2.0-84924028687</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>5650</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10729,6 +11015,12 @@
           <t>2-s2.0-84924337510</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2545</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10940,6 +11232,12 @@
           <t>2-s2.0-84924284851</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>9525</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11155,6 +11453,12 @@
           <t>2-s2.0-84939982695</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1068</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11374,6 +11678,12 @@
           <t>2-s2.0-84939968744</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>883</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11588,6 +11898,12 @@
         <is>
           <t>2-s2.0-84940001026</t>
         </is>
+      </c>
+      <c r="BT52" t="n">
+        <v>1143</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -11780,6 +12096,12 @@
       <c r="BQ53" t="inlineStr"/>
       <c r="BR53" t="inlineStr"/>
       <c r="BS53" t="inlineStr"/>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11994,6 +12316,12 @@
         <is>
           <t>2-s2.0-84917690608</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>5524</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -12186,6 +12514,12 @@
       <c r="BQ55" t="inlineStr"/>
       <c r="BR55" t="inlineStr"/>
       <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12402,6 +12736,12 @@
         <is>
           <t>2-s2.0-84919915281</t>
         </is>
+      </c>
+      <c r="BT56" t="n">
+        <v>1963</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -12610,6 +12950,12 @@
           <t>2-s2.0-84920749581</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1491</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12817,6 +13163,12 @@
           <t>2-s2.0-84921625397</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>3024</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13038,6 +13390,12 @@
           <t>2-s2.0-84922362089</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>6143</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13244,6 +13602,12 @@
         <is>
           <t>2-s2.0-85027918440</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>4642</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -13458,6 +13822,12 @@
           <t>2-s2.0-84919389514</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>461103</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>873</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13673,6 +14043,12 @@
           <t>2-s2.0-84915752232</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>7250</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13896,6 +14272,12 @@
           <t>2-s2.0-84917684177</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>3509</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14110,6 +14492,12 @@
         <is>
           <t>2-s2.0-84920484850</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>15278</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -14318,6 +14706,12 @@
           <t>2-s2.0-84920749593</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>6957</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14529,6 +14923,12 @@
           <t>2-s2.0-84921672907</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>2969</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14746,6 +15146,12 @@
           <t>2-s2.0-84922385914</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1873</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14962,6 +15368,12 @@
         <is>
           <t>2-s2.0-84908424344</t>
         </is>
+      </c>
+      <c r="BT68" t="n">
+        <v>61849</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="69">
@@ -15170,6 +15582,12 @@
           <t>2-s2.0-84908426255</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>11212</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15377,6 +15795,12 @@
           <t>2-s2.0-84908233170</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>4470</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15594,6 +16018,12 @@
           <t>2-s2.0-84908238449</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>3594</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15806,6 +16236,12 @@
         <is>
           <t>2-s2.0-84908240239</t>
         </is>
+      </c>
+      <c r="BT72" t="n">
+        <v>2884</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -16016,6 +16452,12 @@
           <t>2-s2.0-84908462965</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>3294</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16231,6 +16673,12 @@
           <t>2-s2.0-84908432508</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>3203</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16442,6 +16890,12 @@
           <t>2-s2.0-84909957377</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>3066</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16653,6 +17107,12 @@
           <t>2-s2.0-84910652423</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>5231</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16864,6 +17324,12 @@
           <t>2-s2.0-84910620224</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3892</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17078,6 +17544,12 @@
         <is>
           <t>2-s2.0-84910611812</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>6384</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -17270,6 +17742,12 @@
       <c r="BQ79" t="inlineStr"/>
       <c r="BR79" t="inlineStr"/>
       <c r="BS79" t="inlineStr"/>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
